--- a/BDC_-_TheOnlineWizards_-_2022_-_Spring_-_Copy.xlsx
+++ b/BDC_-_TheOnlineWizards_-_2022_-_Spring_-_Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltnmsu-my.sharepoint.com/personal/imarrufo_nmsu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{5BFCFC86-0F9A-5A40-B51A-7C32FA6F3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6040795-C874-ED45-BB58-6B675905B208}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CD1EC-727E-44BC-8ED3-24C7A9BE1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choose File &gt; Make a Copy..." sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="107">
   <si>
     <t>Team:</t>
   </si>
@@ -122,9 +121,6 @@
     <t>IM</t>
   </si>
   <si>
-    <t>Nate Le</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -204,9 +200,6 @@
   </si>
   <si>
     <t>User Test 1</t>
-  </si>
-  <si>
-    <t>Verify that the blocks fall</t>
   </si>
   <si>
     <t>Creating Snake</t>
@@ -349,6 +342,24 @@
   <si>
     <t>Something else</t>
   </si>
+  <si>
+    <t>Creating Demo Environment</t>
+  </si>
+  <si>
+    <t>Resarch on Integration</t>
+  </si>
+  <si>
+    <t>DT/JH</t>
+  </si>
+  <si>
+    <t>Demo 3 set back restart</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Verify that the blocks fall in place</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +370,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="#,##0.###############"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1819,88 +1830,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3</c:v>
@@ -1909,7 +1920,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,97 +2068,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,97 +2306,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,97 +3036,97 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.918367346938773</c:v>
+                  <c:v>56.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.285714285714285</c:v>
+                  <c:v>55.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.653061224489797</c:v>
+                  <c:v>54.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.204081632653057</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.571428571428569</c:v>
+                  <c:v>51.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.938775510204081</c:v>
+                  <c:v>50.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.489795918367349</c:v>
+                  <c:v>48.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.857142857142861</c:v>
+                  <c:v>47.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.224489795918366</c:v>
+                  <c:v>46.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.775510204081634</c:v>
+                  <c:v>45.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.142857142857142</c:v>
+                  <c:v>44.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.510204081632651</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.061224489795919</c:v>
+                  <c:v>41.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.428571428571427</c:v>
+                  <c:v>40.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.795918367346939</c:v>
+                  <c:v>39.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.346938775510203</c:v>
+                  <c:v>37.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.714285714285715</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.08163265306122</c:v>
+                  <c:v>35.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.632653061224488</c:v>
+                  <c:v>33.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>32.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.367346938775512</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.9183673469387728</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2857142857142847</c:v>
+                  <c:v>29.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6530612244897966</c:v>
+                  <c:v>28.066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2040816326530575</c:v>
+                  <c:v>26.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5714285714285694</c:v>
+                  <c:v>25.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.0612244897959187</c:v>
+                  <c:v>24.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.5102040816326507</c:v>
+                  <c:v>22.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.1428571428571459</c:v>
+                  <c:v>21.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.775510204081634</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,97 +3280,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4104,31 +4115,31 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.995456266565697</c:v>
+                  <c:v>51.995500562429697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.988640666414234</c:v>
+                  <c:v>51.988751406074243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.984096932979931</c:v>
+                  <c:v>51.984251968503933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.979553199545627</c:v>
+                  <c:v>51.979752530933631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.972737599394172</c:v>
+                  <c:v>51.973003374578177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.968193865959861</c:v>
+                  <c:v>51.968503937007874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.963650132525558</c:v>
+                  <c:v>51.964004499437571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.956834532374103</c:v>
+                  <c:v>51.957255343082117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.954562665656951</c:v>
+                  <c:v>51.955005624296966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,12 +5662,12 @@
   </sheetPr>
   <dimension ref="A1:AY108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -5671,7 +5682,7 @@
     <col min="48" max="51" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.1">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5732,7 +5743,7 @@
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
     </row>
-    <row r="2" spans="1:51" ht="14.1">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5789,10 +5800,10 @@
       <c r="AX2" s="9"/>
       <c r="AY2" s="9"/>
     </row>
-    <row r="3" spans="1:51" ht="27.95">
+    <row r="3" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <f ca="1">E3-H15</f>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -5805,11 +5816,11 @@
       </c>
       <c r="E3" s="5">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44685</v>
       </c>
       <c r="F3" s="3" t="str">
         <f ca="1">CHOOSE(WEEKDAY(E3),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
-        <v>Fri</v>
+        <v>Wed</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -5861,7 +5872,7 @@
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
     </row>
-    <row r="4" spans="1:51" ht="14.1">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>AA15-H15</f>
         <v>47</v>
@@ -5884,127 +5895,127 @@
       <c r="G4" s="6"/>
       <c r="H4" s="16">
         <f>$H$6</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" ref="I4:AL4" ca="1" si="0">$H$4-($F$6*(I$15-$H$15))</f>
-        <v>47.918367346938773</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>46.285714285714285</v>
+        <v>55.266666666666666</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>44.653061224489797</v>
+        <v>54.2</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>42.204081632653057</v>
+        <v>52.6</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>40.571428571428569</v>
+        <v>51.533333333333331</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>38.938775510204081</v>
+        <v>50.466666666666669</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>36.489795918367349</v>
+        <v>48.866666666666667</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>34.857142857142861</v>
+        <v>47.8</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>33.224489795918366</v>
+        <v>46.733333333333334</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>30.775510204081634</v>
+        <v>45.133333333333333</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>29.142857142857142</v>
+        <v>44.066666666666663</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>27.510204081632651</v>
+        <v>43</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>25.061224489795919</v>
+        <v>41.4</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>23.428571428571427</v>
+        <v>40.333333333333329</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>21.795918367346939</v>
+        <v>39.266666666666666</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>19.346938775510203</v>
+        <v>37.666666666666671</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>17.714285714285715</v>
+        <v>36.6</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>16.08163265306122</v>
+        <v>35.533333333333331</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.632653061224488</v>
+        <v>33.933333333333337</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>32.866666666666667</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.367346938775512</v>
+        <v>31.8</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9183673469387728</v>
+        <v>30.2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2857142857142847</v>
+        <v>29.133333333333333</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6530612244897966</v>
+        <v>28.066666666666666</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2040816326530575</v>
+        <v>26.466666666666669</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5714285714285694</v>
+        <v>25.4</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0612244897959187</v>
+        <v>24.333333333333336</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5102040816326507</v>
+        <v>22.733333333333334</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1428571428571459</v>
+        <v>21.666666666666664</v>
       </c>
       <c r="AL4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.775510204081634</v>
+        <v>20.6</v>
       </c>
       <c r="AM4" s="8" t="s">
         <v>15</v>
@@ -6022,7 +6033,7 @@
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
     </row>
-    <row r="5" spans="1:51" ht="12.95">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="9"/>
@@ -6032,127 +6043,127 @@
       <c r="G5" s="17"/>
       <c r="H5" s="18">
         <f t="shared" ref="H5:AL5" ca="1" si="1">IF(H15&lt;=$E$3,H6,0)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM5" s="8"/>
       <c r="AN5" s="9"/>
@@ -6168,7 +6179,7 @@
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
     </row>
-    <row r="6" spans="1:51" ht="14.1">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -6186,138 +6197,138 @@
       </c>
       <c r="F6" s="20">
         <f ca="1">IF(E3&lt;=H15,1,(D6-E6)/$A3)</f>
-        <v>0.81632653061224492</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:AM6" si="2">SUM(H16:H104)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N6" s="12">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="12">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R6" s="12">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM6" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AN6" s="21"/>
       <c r="AO6" s="22" t="s">
@@ -6344,7 +6355,7 @@
       <c r="AX6" s="9"/>
       <c r="AY6" s="9"/>
     </row>
-    <row r="7" spans="1:51" ht="14.1">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -6359,121 +6370,121 @@
       </c>
       <c r="E7" s="25">
         <f t="shared" ref="E7:E11" si="3">IF($C$4="R",AQ7,AU7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="9"/>
       <c r="H7" s="27">
         <f t="shared" ref="H7:AM7" si="4">IF($C$4="R",SUMIF($A$16:$A$104,$A7,H$16:H$104),SUMIF($C$16:$C$104,$C7,H$16:H$104))</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J7" s="27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K7" s="27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L7" s="27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M7" s="27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N7" s="27">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O7" s="27">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P7" s="27">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="27">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R7" s="27">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="W7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="27">
         <f t="shared" si="4"/>
@@ -6485,11 +6496,11 @@
       </c>
       <c r="AL7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="27">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="8">
@@ -6497,11 +6508,11 @@
       </c>
       <c r="AP7" s="24">
         <f t="shared" ref="AP7:AQ7" si="5">SUMIF($A$16:$A$104,$A7,D$16:D$104)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AQ7" s="25">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="9"/>
       <c r="AS7" s="28" t="str">
@@ -6510,18 +6521,18 @@
       </c>
       <c r="AT7" s="24">
         <f t="shared" ref="AT7:AU7" si="7">SUMIF($C$16:$C$104,$C7,D$16:D$104)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU7" s="25">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
     </row>
-    <row r="8" spans="1:51" ht="14.1">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -6536,137 +6547,137 @@
       </c>
       <c r="E8" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="9"/>
       <c r="H8" s="27">
         <f t="shared" ref="H8:AM8" si="8">IF($C$4="R",SUMIF($A$16:$A$104,$A8,H$16:H$104),SUMIF($C$16:$C$104,$C8,H$16:H$104))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="27">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" s="27">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" s="27">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" s="27">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="27">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O8" s="27">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P8" s="27">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" s="27">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="27">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="9"/>
       <c r="AO8" s="8">
@@ -6674,11 +6685,11 @@
       </c>
       <c r="AP8" s="30">
         <f t="shared" ref="AP8:AQ8" si="9">SUMIF($A$16:$A$104,$A8,D$16:D$104)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" s="25">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="9"/>
       <c r="AS8" s="31" t="str">
@@ -6687,163 +6698,159 @@
       </c>
       <c r="AT8" s="30">
         <f t="shared" ref="AT8:AU8" si="10">SUMIF($C$16:$C$104,$C8,D$16:D$104)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU8" s="25">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9"/>
     </row>
-    <row r="9" spans="1:51" ht="14.1">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="32" t="s">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="9"/>
       <c r="H9" s="27">
         <f t="shared" ref="H9:AM9" si="11">IF($C$4="R",SUMIF($A$16:$A$104,$A9,H$16:H$104),SUMIF($C$16:$C$104,$C9,H$16:H$104))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="27">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="8">
@@ -6851,11 +6858,11 @@
       </c>
       <c r="AP9" s="33">
         <f t="shared" ref="AP9:AQ9" si="12">SUMIF($A$16:$A$104,$A9,D$16:D$104)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="25">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="9"/>
       <c r="AS9" s="34" t="str">
@@ -6864,26 +6871,26 @@
       </c>
       <c r="AT9" s="33">
         <f t="shared" ref="AT9:AU9" si="13">SUMIF($C$16:$C$104,$C9,D$16:D$104)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="25">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
     </row>
-    <row r="10" spans="1:51" ht="14.1">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="8">
         <v>15</v>
@@ -7044,13 +7051,13 @@
       <c r="AX10" s="9"/>
       <c r="AY10" s="9"/>
     </row>
-    <row r="11" spans="1:51" ht="14.1">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" ref="D11" si="16">IF($C$4="R",SUMIF(A$16:A$104,$A11,D$16:D$104),SUMIF($C$16:$C$104,$C11,D$16:D$104))</f>
@@ -7192,7 +7199,7 @@
       </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AP11" s="39">
         <f t="shared" ref="AP11:AQ11" si="18">SUMIF($A$16:$A$104,$A11,D$16:D$104)</f>
@@ -7220,7 +7227,7 @@
       <c r="AX11" s="9"/>
       <c r="AY11" s="9"/>
     </row>
-    <row r="12" spans="1:51" ht="14.1">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -7229,7 +7236,7 @@
       <c r="F12" s="41"/>
       <c r="G12" s="42"/>
       <c r="H12" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="68"/>
       <c r="J12" s="43"/>
@@ -7280,10 +7287,10 @@
       <c r="AX12" s="9"/>
       <c r="AY12" s="9"/>
     </row>
-    <row r="13" spans="1:51" ht="14.1">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -7397,10 +7404,10 @@
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
     </row>
-    <row r="14" spans="1:51" ht="14.1">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -7545,15 +7552,15 @@
       <c r="AX14" s="9"/>
       <c r="AY14" s="9"/>
     </row>
-    <row r="15" spans="1:51" ht="14.1">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>12</v>
@@ -7688,7 +7695,7 @@
       </c>
       <c r="AM15" s="46" t="str">
         <f ca="1">AL15-E3&amp;" Days"</f>
-        <v>23 Days</v>
+        <v>-3 Days</v>
       </c>
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
@@ -7703,10 +7710,10 @@
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
     </row>
-    <row r="16" spans="1:51" ht="14.1">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7857,12 +7864,12 @@
       <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
     </row>
-    <row r="17" spans="1:51" ht="14.1">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>26</v>
@@ -8016,12 +8023,12 @@
       <c r="AX17" s="9"/>
       <c r="AY17" s="9"/>
     </row>
-    <row r="18" spans="1:51" ht="14.1">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>26</v>
@@ -8175,15 +8182,15 @@
       <c r="AX18" s="9"/>
       <c r="AY18" s="9"/>
     </row>
-    <row r="19" spans="1:51" ht="14.1">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -8334,15 +8341,15 @@
       <c r="AX19" s="9"/>
       <c r="AY19" s="9"/>
     </row>
-    <row r="20" spans="1:51" ht="14.1">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14">
         <v>2</v>
@@ -8493,12 +8500,12 @@
       <c r="AX20" s="9"/>
       <c r="AY20" s="9"/>
     </row>
-    <row r="21" spans="1:51" ht="27.95">
+    <row r="21" spans="1:51" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>24</v>
@@ -8652,7 +8659,7 @@
       <c r="AX21" s="9"/>
       <c r="AY21" s="9"/>
     </row>
-    <row r="22" spans="1:51" ht="12.95">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -8804,10 +8811,10 @@
       <c r="AX22" s="9"/>
       <c r="AY22" s="9"/>
     </row>
-    <row r="23" spans="1:51" ht="14.1">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8958,12 +8965,12 @@
       <c r="AX23" s="9"/>
       <c r="AY23" s="9"/>
     </row>
-    <row r="24" spans="1:51" ht="14.1">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>24</v>
@@ -9113,12 +9120,12 @@
       <c r="AX24" s="9"/>
       <c r="AY24" s="9"/>
     </row>
-    <row r="25" spans="1:51" ht="15.75" customHeight="1">
+    <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>24</v>
@@ -9270,12 +9277,12 @@
       <c r="AX25" s="9"/>
       <c r="AY25" s="9"/>
     </row>
-    <row r="26" spans="1:51" ht="14.1">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>26</v>
@@ -9429,15 +9436,15 @@
       <c r="AX26" s="9"/>
       <c r="AY26" s="9"/>
     </row>
-    <row r="27" spans="1:51" ht="14.1">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="14">
         <v>2</v>
@@ -9588,12 +9595,12 @@
       <c r="AX27" s="9"/>
       <c r="AY27" s="9"/>
     </row>
-    <row r="28" spans="1:51" ht="27.95">
+    <row r="28" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>26</v>
@@ -9747,15 +9754,15 @@
       <c r="AX28" s="9"/>
       <c r="AY28" s="9"/>
     </row>
-    <row r="29" spans="1:51" ht="27.95">
+    <row r="29" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -9906,7 +9913,7 @@
       <c r="AX29" s="9"/>
       <c r="AY29" s="9"/>
     </row>
-    <row r="30" spans="1:51" ht="12.95">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -10055,7 +10062,7 @@
       <c r="AX30" s="9"/>
       <c r="AY30" s="9"/>
     </row>
-    <row r="31" spans="1:51" ht="12.95">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -10207,10 +10214,10 @@
       <c r="AX31" s="9"/>
       <c r="AY31" s="9"/>
     </row>
-    <row r="32" spans="1:51" ht="14.1">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="14"/>
@@ -10361,12 +10368,12 @@
       <c r="AX32" s="9"/>
       <c r="AY32" s="9"/>
     </row>
-    <row r="33" spans="1:51" ht="42">
+    <row r="33" spans="1:51" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -10517,12 +10524,12 @@
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
     </row>
-    <row r="34" spans="1:51" ht="42">
+    <row r="34" spans="1:51" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>26</v>
@@ -10671,15 +10678,15 @@
       <c r="AX34" s="9"/>
       <c r="AY34" s="9"/>
     </row>
-    <row r="35" spans="1:51" ht="42">
+    <row r="35" spans="1:51" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="14">
         <v>4</v>
@@ -10830,12 +10837,12 @@
       <c r="AX35" s="9"/>
       <c r="AY35" s="9"/>
     </row>
-    <row r="36" spans="1:51" ht="27.95">
+    <row r="36" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>24</v>
@@ -10989,15 +10996,15 @@
       <c r="AX36" s="9"/>
       <c r="AY36" s="9"/>
     </row>
-    <row r="37" spans="1:51" ht="14.1">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="14">
         <v>2</v>
@@ -11148,12 +11155,12 @@
       <c r="AX37" s="9"/>
       <c r="AY37" s="9"/>
     </row>
-    <row r="38" spans="1:51" ht="14.1">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>24</v>
@@ -11305,7 +11312,7 @@
       <c r="AX38" s="9"/>
       <c r="AY38" s="9"/>
     </row>
-    <row r="39" spans="1:51" ht="12.95">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -11454,10 +11461,10 @@
       <c r="AX39" s="9"/>
       <c r="AY39" s="9"/>
     </row>
-    <row r="40" spans="1:51" ht="14.1">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -11605,21 +11612,21 @@
       <c r="AX40" s="9"/>
       <c r="AY40" s="9"/>
     </row>
-    <row r="41" spans="1:51" ht="14.1">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D41" s="14">
         <v>1</v>
       </c>
       <c r="E41" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="17"/>
@@ -11763,15 +11770,15 @@
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
     </row>
-    <row r="42" spans="1:51" ht="14.1">
+    <row r="42" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D42" s="14">
         <v>1</v>
@@ -11781,7 +11788,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="17"/>
+      <c r="G42" s="17">
+        <f ca="1">G42</f>
+        <v>0</v>
+      </c>
       <c r="H42" s="49">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -11922,10 +11932,10 @@
       <c r="AX42" s="9"/>
       <c r="AY42" s="9"/>
     </row>
-    <row r="43" spans="1:51" ht="14.1">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -12076,12 +12086,12 @@
       <c r="AX43" s="9"/>
       <c r="AY43" s="9"/>
     </row>
-    <row r="44" spans="1:51" ht="14.1">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>26</v>
@@ -12235,15 +12245,15 @@
       <c r="AX44" s="9"/>
       <c r="AY44" s="9"/>
     </row>
-    <row r="45" spans="1:51" ht="14.1">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="14">
         <v>4</v>
@@ -12394,12 +12404,12 @@
       <c r="AX45" s="9"/>
       <c r="AY45" s="9"/>
     </row>
-    <row r="46" spans="1:51" ht="14.1">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>24</v>
@@ -12409,7 +12419,7 @@
       </c>
       <c r="E46" s="25">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="17"/>
@@ -12501,44 +12511,42 @@
         <v>3</v>
       </c>
       <c r="AD46" s="50">
-        <f t="shared" si="57"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF46" s="50">
-        <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="50">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="18">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
@@ -12553,12 +12561,12 @@
       <c r="AX46" s="9"/>
       <c r="AY46" s="9"/>
     </row>
-    <row r="47" spans="1:51" ht="27.95">
+    <row r="47" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>26</v>
@@ -12568,7 +12576,7 @@
       </c>
       <c r="E47" s="25">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="17"/>
@@ -12668,36 +12676,35 @@
         <v>1</v>
       </c>
       <c r="AF47" s="50">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="50">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="50">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="50">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="50">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="50">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="50">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="18">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
@@ -12712,22 +12719,22 @@
       <c r="AX47" s="9"/>
       <c r="AY47" s="9"/>
     </row>
-    <row r="48" spans="1:51" ht="14.1">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="14">
         <v>1</v>
       </c>
       <c r="E48" s="25">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="17"/>
@@ -12832,32 +12839,31 @@
         <v>1</v>
       </c>
       <c r="AG48" s="50">
-        <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="50">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="50">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="50">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="50">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="50">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="18">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
@@ -12872,12 +12878,12 @@
       <c r="AX48" s="9"/>
       <c r="AY48" s="9"/>
     </row>
-    <row r="49" spans="1:51" ht="14.1">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>26</v>
@@ -12887,7 +12893,7 @@
       </c>
       <c r="E49" s="25">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="17"/>
@@ -12991,32 +12997,31 @@
         <v>1</v>
       </c>
       <c r="AG49" s="50">
-        <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="50">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="50">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="50">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="50">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="50">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="18">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
@@ -13031,116 +13036,125 @@
       <c r="AX49" s="9"/>
       <c r="AY49" s="9"/>
     </row>
-    <row r="50" spans="1:51" ht="12.95">
-      <c r="A50" s="14"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="25"/>
+    <row r="50" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="25">
+        <v>0</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="17"/>
       <c r="H50" s="49">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="50">
         <f t="shared" ref="I50:AM50" si="61">H50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" s="50">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="50">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AH50" s="50">
@@ -13180,116 +13194,125 @@
       <c r="AX50" s="9"/>
       <c r="AY50" s="9"/>
     </row>
-    <row r="51" spans="1:51" ht="12.95">
-      <c r="A51" s="14"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="25"/>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="14">
+        <v>2</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="17"/>
       <c r="H51" s="49">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" s="50">
         <f t="shared" ref="I51:AM51" si="62">H51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF51" s="50">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="50">
-        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AH51" s="50">
@@ -13329,141 +13352,147 @@
       <c r="AX51" s="9"/>
       <c r="AY51" s="9"/>
     </row>
-    <row r="52" spans="1:51" ht="12.95">
-      <c r="A52" s="14"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="25"/>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="14">
+        <v>4</v>
+      </c>
+      <c r="E52" s="25">
+        <v>2</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="17"/>
       <c r="H52" s="49">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="50">
         <f t="shared" ref="I52:AM52" si="63">H52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH52" s="50">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI52" s="50">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ52" s="50">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK52" s="50">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL52" s="50">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM52" s="18">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
@@ -13478,7 +13507,7 @@
       <c r="AX52" s="9"/>
       <c r="AY52" s="9"/>
     </row>
-    <row r="53" spans="1:51" ht="12.95">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -13630,7 +13659,7 @@
       <c r="AX53" s="9"/>
       <c r="AY53" s="9"/>
     </row>
-    <row r="54" spans="1:51" ht="12.95">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -13782,7 +13811,7 @@
       <c r="AX54" s="9"/>
       <c r="AY54" s="9"/>
     </row>
-    <row r="55" spans="1:51" ht="12.95">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -13934,7 +13963,7 @@
       <c r="AX55" s="9"/>
       <c r="AY55" s="9"/>
     </row>
-    <row r="56" spans="1:51" ht="12.95">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -14086,7 +14115,7 @@
       <c r="AX56" s="9"/>
       <c r="AY56" s="9"/>
     </row>
-    <row r="57" spans="1:51" ht="12.95">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -14238,7 +14267,7 @@
       <c r="AX57" s="9"/>
       <c r="AY57" s="9"/>
     </row>
-    <row r="58" spans="1:51" ht="12.95">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -14390,7 +14419,7 @@
       <c r="AX58" s="9"/>
       <c r="AY58" s="9"/>
     </row>
-    <row r="59" spans="1:51" ht="12.95">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -14542,7 +14571,7 @@
       <c r="AX59" s="9"/>
       <c r="AY59" s="9"/>
     </row>
-    <row r="60" spans="1:51" ht="12.95">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -14694,7 +14723,7 @@
       <c r="AX60" s="9"/>
       <c r="AY60" s="9"/>
     </row>
-    <row r="61" spans="1:51" ht="12.95">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -14846,7 +14875,7 @@
       <c r="AX61" s="9"/>
       <c r="AY61" s="9"/>
     </row>
-    <row r="62" spans="1:51" ht="12.95">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -14998,7 +15027,7 @@
       <c r="AX62" s="9"/>
       <c r="AY62" s="9"/>
     </row>
-    <row r="63" spans="1:51" ht="12.95">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -15150,7 +15179,7 @@
       <c r="AX63" s="9"/>
       <c r="AY63" s="9"/>
     </row>
-    <row r="64" spans="1:51" ht="12.95">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="52"/>
       <c r="C64" s="14"/>
@@ -15302,7 +15331,7 @@
       <c r="AX64" s="9"/>
       <c r="AY64" s="9"/>
     </row>
-    <row r="65" spans="1:51" ht="12.95">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -15454,7 +15483,7 @@
       <c r="AX65" s="9"/>
       <c r="AY65" s="9"/>
     </row>
-    <row r="66" spans="1:51" ht="12.95">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -15606,7 +15635,7 @@
       <c r="AX66" s="9"/>
       <c r="AY66" s="9"/>
     </row>
-    <row r="67" spans="1:51" ht="12.95">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -15758,7 +15787,7 @@
       <c r="AX67" s="9"/>
       <c r="AY67" s="9"/>
     </row>
-    <row r="68" spans="1:51" ht="12.95">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -15910,7 +15939,7 @@
       <c r="AX68" s="9"/>
       <c r="AY68" s="9"/>
     </row>
-    <row r="69" spans="1:51" ht="12.95">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -16062,7 +16091,7 @@
       <c r="AX69" s="9"/>
       <c r="AY69" s="9"/>
     </row>
-    <row r="70" spans="1:51" ht="12.95">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -16214,7 +16243,7 @@
       <c r="AX70" s="9"/>
       <c r="AY70" s="9"/>
     </row>
-    <row r="71" spans="1:51" ht="12.95">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -16366,7 +16395,7 @@
       <c r="AX71" s="9"/>
       <c r="AY71" s="9"/>
     </row>
-    <row r="72" spans="1:51" ht="12.95">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -16518,7 +16547,7 @@
       <c r="AX72" s="9"/>
       <c r="AY72" s="9"/>
     </row>
-    <row r="73" spans="1:51" ht="12.95">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -16670,7 +16699,7 @@
       <c r="AX73" s="9"/>
       <c r="AY73" s="9"/>
     </row>
-    <row r="74" spans="1:51" ht="12.95">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -16822,7 +16851,7 @@
       <c r="AX74" s="9"/>
       <c r="AY74" s="9"/>
     </row>
-    <row r="75" spans="1:51" ht="12.95">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -16974,7 +17003,7 @@
       <c r="AX75" s="9"/>
       <c r="AY75" s="9"/>
     </row>
-    <row r="76" spans="1:51" ht="12.95">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -17126,7 +17155,7 @@
       <c r="AX76" s="9"/>
       <c r="AY76" s="9"/>
     </row>
-    <row r="77" spans="1:51" ht="12.95">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -17278,7 +17307,7 @@
       <c r="AX77" s="9"/>
       <c r="AY77" s="9"/>
     </row>
-    <row r="78" spans="1:51" ht="12.95">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -17430,7 +17459,7 @@
       <c r="AX78" s="9"/>
       <c r="AY78" s="9"/>
     </row>
-    <row r="79" spans="1:51" ht="12.95">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -17582,7 +17611,7 @@
       <c r="AX79" s="9"/>
       <c r="AY79" s="9"/>
     </row>
-    <row r="80" spans="1:51" ht="12.95">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -17734,7 +17763,7 @@
       <c r="AX80" s="9"/>
       <c r="AY80" s="9"/>
     </row>
-    <row r="81" spans="1:51" ht="12.95">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -17886,7 +17915,7 @@
       <c r="AX81" s="9"/>
       <c r="AY81" s="9"/>
     </row>
-    <row r="82" spans="1:51" ht="12.95">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -18038,7 +18067,7 @@
       <c r="AX82" s="9"/>
       <c r="AY82" s="9"/>
     </row>
-    <row r="83" spans="1:51" ht="12.95">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -18190,7 +18219,7 @@
       <c r="AX83" s="9"/>
       <c r="AY83" s="9"/>
     </row>
-    <row r="84" spans="1:51" ht="12.95">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -18342,7 +18371,7 @@
       <c r="AX84" s="9"/>
       <c r="AY84" s="9"/>
     </row>
-    <row r="85" spans="1:51" ht="12.95">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -18494,7 +18523,7 @@
       <c r="AX85" s="9"/>
       <c r="AY85" s="9"/>
     </row>
-    <row r="86" spans="1:51" ht="12.95">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -18646,7 +18675,7 @@
       <c r="AX86" s="9"/>
       <c r="AY86" s="9"/>
     </row>
-    <row r="87" spans="1:51" ht="12.95">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -18798,7 +18827,7 @@
       <c r="AX87" s="9"/>
       <c r="AY87" s="9"/>
     </row>
-    <row r="88" spans="1:51" ht="12.95">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -18950,7 +18979,7 @@
       <c r="AX88" s="9"/>
       <c r="AY88" s="9"/>
     </row>
-    <row r="89" spans="1:51" ht="12.95">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -19102,7 +19131,7 @@
       <c r="AX89" s="9"/>
       <c r="AY89" s="9"/>
     </row>
-    <row r="90" spans="1:51" ht="12.95">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -19254,7 +19283,7 @@
       <c r="AX90" s="9"/>
       <c r="AY90" s="9"/>
     </row>
-    <row r="91" spans="1:51" ht="12.95">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -19406,7 +19435,7 @@
       <c r="AX91" s="9"/>
       <c r="AY91" s="9"/>
     </row>
-    <row r="92" spans="1:51" ht="12.95">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -19558,7 +19587,7 @@
       <c r="AX92" s="9"/>
       <c r="AY92" s="9"/>
     </row>
-    <row r="93" spans="1:51" ht="12.95">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -19710,7 +19739,7 @@
       <c r="AX93" s="9"/>
       <c r="AY93" s="9"/>
     </row>
-    <row r="94" spans="1:51" ht="12.95">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -19862,7 +19891,7 @@
       <c r="AX94" s="9"/>
       <c r="AY94" s="9"/>
     </row>
-    <row r="95" spans="1:51" ht="12.95">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -20014,7 +20043,7 @@
       <c r="AX95" s="9"/>
       <c r="AY95" s="9"/>
     </row>
-    <row r="96" spans="1:51" ht="12.95">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -20166,7 +20195,7 @@
       <c r="AX96" s="9"/>
       <c r="AY96" s="9"/>
     </row>
-    <row r="97" spans="1:51" ht="12.95">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -20318,7 +20347,7 @@
       <c r="AX97" s="9"/>
       <c r="AY97" s="9"/>
     </row>
-    <row r="98" spans="1:51" ht="12.95">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -20470,7 +20499,7 @@
       <c r="AX98" s="9"/>
       <c r="AY98" s="9"/>
     </row>
-    <row r="99" spans="1:51" ht="12.95">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -20622,7 +20651,7 @@
       <c r="AX99" s="9"/>
       <c r="AY99" s="9"/>
     </row>
-    <row r="100" spans="1:51" ht="12.95">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -20774,7 +20803,7 @@
       <c r="AX100" s="9"/>
       <c r="AY100" s="9"/>
     </row>
-    <row r="101" spans="1:51" ht="12.95">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -20926,7 +20955,7 @@
       <c r="AX101" s="9"/>
       <c r="AY101" s="9"/>
     </row>
-    <row r="102" spans="1:51" ht="12.95">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -21078,7 +21107,7 @@
       <c r="AX102" s="9"/>
       <c r="AY102" s="9"/>
     </row>
-    <row r="103" spans="1:51" ht="12.95">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -21230,7 +21259,7 @@
       <c r="AX103" s="9"/>
       <c r="AY103" s="9"/>
     </row>
-    <row r="104" spans="1:51" ht="12.95">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -21382,10 +21411,10 @@
       <c r="AX104" s="53"/>
       <c r="AY104" s="53"/>
     </row>
-    <row r="105" spans="1:51" ht="12.95">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A105" s="54"/>
       <c r="B105" s="55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C105" s="56"/>
       <c r="D105" s="56"/>
@@ -21437,7 +21466,7 @@
       <c r="AX105" s="60"/>
       <c r="AY105" s="61"/>
     </row>
-    <row r="106" spans="1:51" ht="12" customHeight="1">
+    <row r="106" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="3"/>
       <c r="C106" s="8"/>
@@ -21505,7 +21534,7 @@
       <c r="AX106" s="9"/>
       <c r="AY106" s="9"/>
     </row>
-    <row r="107" spans="1:51" ht="12.95">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="3"/>
       <c r="C107" s="8"/>
@@ -21573,7 +21602,7 @@
       <c r="AX107" s="9"/>
       <c r="AY107" s="9"/>
     </row>
-    <row r="108" spans="1:51" ht="12.95">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -21829,7 +21858,7 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -21845,19 +21874,19 @@
     <col min="28" max="29" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="27.95">
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -21884,10 +21913,10 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="27.95">
+    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <f ca="1">E2-H14</f>
-        <v>2641</v>
+        <v>2667</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
@@ -21900,14 +21929,14 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44685</v>
       </c>
       <c r="F2" s="3" t="str">
         <f ca="1">CHOOSE(WEEKDAY(E2),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
-        <v>Fri</v>
+        <v>Wed</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -21934,7 +21963,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="14.1">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <f>Q14-H14</f>
         <v>20</v>
@@ -21943,7 +21972,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -21955,7 +21984,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="16">
         <f>$H$5</f>
@@ -21963,39 +21992,39 @@
       </c>
       <c r="I3" s="16">
         <f t="shared" ref="I3:Q3" ca="1" si="0">$H$3-($F$5*(I$14-$H$14))</f>
-        <v>51.995456266565697</v>
+        <v>51.995500562429697</v>
       </c>
       <c r="J3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.988640666414234</v>
+        <v>51.988751406074243</v>
       </c>
       <c r="K3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.984096932979931</v>
+        <v>51.984251968503933</v>
       </c>
       <c r="L3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.979553199545627</v>
+        <v>51.979752530933631</v>
       </c>
       <c r="M3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.972737599394172</v>
+        <v>51.973003374578177</v>
       </c>
       <c r="N3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.968193865959861</v>
+        <v>51.968503937007874</v>
       </c>
       <c r="O3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.963650132525558</v>
+        <v>51.964004499437571</v>
       </c>
       <c r="P3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.956834532374103</v>
+        <v>51.957255343082117</v>
       </c>
       <c r="Q3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>51.954562665656951</v>
+        <v>51.955005624296966</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="8" t="s">
@@ -22012,7 +22041,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:29" ht="12.95" hidden="1">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="9"/>
@@ -22073,7 +22102,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" ht="14.1">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -22093,7 +22122,7 @@
       </c>
       <c r="F5" s="20">
         <f ca="1">IF(E2&lt;=H14,1,(D5-E5)/$A2)</f>
-        <v>2.2718667171525938E-3</v>
+        <v>2.2497187851518562E-3</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
@@ -22168,15 +22197,15 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="14.1">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ref="D6:D10" si="4">IF($C$3="R",SUMIF(A$15:A$103,$A6,D$15:D$103),SUMIF($C$15:$C$103,$C6,D$15:D$103))</f>
@@ -22264,15 +22293,15 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="14.1">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="4"/>
@@ -22360,15 +22389,15 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="14.1">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="4"/>
@@ -22456,13 +22485,13 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="14.1">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="4"/>
@@ -22542,11 +22571,11 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="14.1">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="38"/>
       <c r="C10" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="4"/>
@@ -22608,7 +22637,7 @@
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V10" s="39">
         <f t="shared" ref="V10:W10" si="19">SUMIF($A$15:$A$103,$A10,D$15:D$103)</f>
@@ -22634,7 +22663,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="14.1">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -22643,7 +22672,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
       <c r="H11" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="41"/>
@@ -22653,7 +22682,7 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="68"/>
       <c r="R11" s="41"/>
@@ -22671,10 +22700,10 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="14.1">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -22724,10 +22753,10 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="14.1">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -22787,15 +22816,15 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="14.1">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
@@ -22847,7 +22876,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="46" t="str">
         <f ca="1">Q14-E2&amp;" Days"</f>
-        <v>-2621 Days</v>
+        <v>-2647 Days</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
@@ -22860,10 +22889,10 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="14.1">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -22929,15 +22958,15 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="14.1">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="14">
         <v>4</v>
@@ -23003,15 +23032,15 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="1:29" ht="14.1">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="14">
         <v>4</v>
@@ -23077,15 +23106,15 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="1:29" ht="27.95">
+    <row r="18" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="14">
         <v>2</v>
@@ -23152,15 +23181,15 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" ht="27.95">
+    <row r="19" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
@@ -23226,7 +23255,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="1:29" ht="12.95">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -23293,7 +23322,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29" ht="12.95">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -23360,10 +23389,10 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -23429,15 +23458,15 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -23504,15 +23533,15 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="14">
         <v>2</v>
@@ -23579,15 +23608,15 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="14">
         <v>4</v>
@@ -23654,15 +23683,15 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
@@ -23729,15 +23758,15 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="14">
         <v>2</v>
@@ -23804,15 +23833,15 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
@@ -23879,15 +23908,15 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -23954,7 +23983,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="1:29" ht="12.95">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -24021,10 +24050,10 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -24090,15 +24119,15 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="14">
         <v>3</v>
@@ -24165,15 +24194,15 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="1:29" ht="14.1">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="14">
         <v>2</v>
@@ -24240,13 +24269,13 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="1:29" ht="14.1">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="25">
@@ -24311,7 +24340,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="1:29" ht="12.95">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -24378,10 +24407,10 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="1:29" ht="14.1">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -24447,15 +24476,15 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="1:29" ht="14.1">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="14">
         <v>1</v>
@@ -24522,15 +24551,15 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="1:29" ht="14.1">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="14">
         <v>8</v>
@@ -24597,15 +24626,15 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="1:29" ht="14.1">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="14">
         <v>2</v>
@@ -24672,13 +24701,13 @@
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
     </row>
-    <row r="40" spans="1:29" ht="14.1">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="25">
@@ -24743,7 +24772,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="1:29" ht="12.95">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -24810,7 +24839,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="1:29" ht="12.95">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -24877,10 +24906,10 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="1:29" ht="14.1">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -24946,15 +24975,15 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="1:29" ht="14.1">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="14">
         <v>2</v>
@@ -25021,15 +25050,15 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="1:29" ht="14.1">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="14">
         <v>4</v>
@@ -25096,15 +25125,15 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="1:29" ht="14.1">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="14">
         <v>4</v>
@@ -25171,7 +25200,7 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="1:29" ht="12.95">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -25238,7 +25267,7 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="1:29" ht="12.95">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -25305,7 +25334,7 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="1:29" ht="12.95">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -25372,7 +25401,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="1:29" ht="12.95">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -25439,7 +25468,7 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="1:29" ht="12.95">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -25506,7 +25535,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="1:29" ht="12.95">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -25573,7 +25602,7 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="1:29" ht="12.95">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -25640,7 +25669,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="1:29" ht="12.95">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -25707,7 +25736,7 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
     </row>
-    <row r="55" spans="1:29" ht="12.95">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -25774,7 +25803,7 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
     </row>
-    <row r="56" spans="1:29" ht="12.95">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -25841,7 +25870,7 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
     </row>
-    <row r="57" spans="1:29" ht="12.95">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -25908,7 +25937,7 @@
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
     </row>
-    <row r="58" spans="1:29" ht="12.95">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -25975,7 +26004,7 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
     </row>
-    <row r="59" spans="1:29" ht="12.95">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -26042,7 +26071,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="1:29" ht="12.95">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -26109,7 +26138,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
     </row>
-    <row r="61" spans="1:29" ht="12.95">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -26176,7 +26205,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
     </row>
-    <row r="62" spans="1:29" ht="12.95">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -26243,7 +26272,7 @@
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
     </row>
-    <row r="63" spans="1:29" ht="12.95">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="52"/>
       <c r="C63" s="14"/>
@@ -26310,7 +26339,7 @@
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
     </row>
-    <row r="64" spans="1:29" ht="12.95">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -26377,7 +26406,7 @@
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
     </row>
-    <row r="65" spans="1:29" ht="12.95">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -26444,7 +26473,7 @@
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
     </row>
-    <row r="66" spans="1:29" ht="12.95">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -26511,7 +26540,7 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
     </row>
-    <row r="67" spans="1:29" ht="12.95">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -26578,7 +26607,7 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
     </row>
-    <row r="68" spans="1:29" ht="12.95">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -26645,7 +26674,7 @@
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
     </row>
-    <row r="69" spans="1:29" ht="12.95">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -26712,7 +26741,7 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="1:29" ht="12.95">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -26779,7 +26808,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="1:29" ht="12.95">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -26846,7 +26875,7 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="1:29" ht="12.95">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -26913,7 +26942,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="1:29" ht="12.95">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -26980,7 +27009,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="1:29" ht="12.95">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -27047,7 +27076,7 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="1:29" ht="12.95">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -27114,7 +27143,7 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="1:29" ht="12.95">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -27181,7 +27210,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="1:29" ht="12.95">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -27248,7 +27277,7 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="1:29" ht="12.95">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -27315,7 +27344,7 @@
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
     </row>
-    <row r="79" spans="1:29" ht="12.95">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -27382,7 +27411,7 @@
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
     </row>
-    <row r="80" spans="1:29" ht="12.95">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -27449,7 +27478,7 @@
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="1:29" ht="12.95">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -27516,7 +27545,7 @@
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="1:29" ht="12.95">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -27583,7 +27612,7 @@
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="1:29" ht="12.95">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -27650,7 +27679,7 @@
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="1:29" ht="12.95">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -27717,7 +27746,7 @@
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
     </row>
-    <row r="85" spans="1:29" ht="12.95">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -27784,7 +27813,7 @@
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
     </row>
-    <row r="86" spans="1:29" ht="12.95">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -27851,7 +27880,7 @@
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
     </row>
-    <row r="87" spans="1:29" ht="12.95">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -27918,7 +27947,7 @@
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
     </row>
-    <row r="88" spans="1:29" ht="12.95">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -27985,7 +28014,7 @@
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
     </row>
-    <row r="89" spans="1:29" ht="12.95">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -28052,7 +28081,7 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
     </row>
-    <row r="90" spans="1:29" ht="12.95">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -28119,7 +28148,7 @@
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
-    <row r="91" spans="1:29" ht="12.95">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -28186,7 +28215,7 @@
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
-    <row r="92" spans="1:29" ht="12.95">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -28253,7 +28282,7 @@
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
-    <row r="93" spans="1:29" ht="12.95">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -28320,7 +28349,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="1:29" ht="12.95">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -28387,7 +28416,7 @@
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
-    <row r="95" spans="1:29" ht="12.95">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -28454,7 +28483,7 @@
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
     </row>
-    <row r="96" spans="1:29" ht="12.95">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -28521,7 +28550,7 @@
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
     </row>
-    <row r="97" spans="1:29" ht="12.95">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -28588,7 +28617,7 @@
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
-    <row r="98" spans="1:29" ht="12.95">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -28655,7 +28684,7 @@
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
-    <row r="99" spans="1:29" ht="12.95">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -28722,7 +28751,7 @@
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
-    <row r="100" spans="1:29" ht="12.95">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -28789,7 +28818,7 @@
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
     </row>
-    <row r="101" spans="1:29" ht="12.95">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -28856,7 +28885,7 @@
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
     </row>
-    <row r="102" spans="1:29" ht="12.95">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -28923,7 +28952,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="1:29" ht="12.95">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -28990,10 +29019,10 @@
       <c r="AB103" s="53"/>
       <c r="AC103" s="53"/>
     </row>
-    <row r="104" spans="1:29" ht="12.95">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="54"/>
       <c r="B104" s="55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C104" s="56"/>
       <c r="D104" s="56"/>
@@ -29023,7 +29052,7 @@
       <c r="AB104" s="60"/>
       <c r="AC104" s="61"/>
     </row>
-    <row r="105" spans="1:29" ht="12" customHeight="1">
+    <row r="105" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="3"/>
       <c r="C105" s="8"/>
@@ -29072,7 +29101,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="1:29" ht="12.95">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="3"/>
       <c r="C106" s="8"/>
@@ -29121,7 +29150,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="1:29" ht="12.95">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -29350,7 +29379,7 @@
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -29365,19 +29394,19 @@
     <col min="21" max="30" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="27.95">
+    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
@@ -29404,10 +29433,10 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:30" ht="27.95">
+    <row r="2" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <f ca="1">E2-H14</f>
-        <v>2641</v>
+        <v>2667</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
@@ -29420,14 +29449,14 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44685</v>
       </c>
       <c r="F2" s="3" t="str">
         <f ca="1">CHOOSE(WEEKDAY(E2),"Sun","Mon","Tue","Wed","Thu","Fri","Sat")</f>
-        <v>Fri</v>
+        <v>Wed</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -29454,7 +29483,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:30" ht="14.1">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <f>Q14-H14</f>
         <v>20</v>
@@ -29463,7 +29492,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -29530,7 +29559,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
     </row>
-    <row r="4" spans="1:30" ht="12.95" hidden="1">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="9"/>
@@ -29591,7 +29620,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:30" ht="27.95">
+    <row r="5" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -29611,7 +29640,7 @@
       </c>
       <c r="F5" s="20">
         <f ca="1">IF(E2&lt;=H14,1,(D5-E5)/$A2)</f>
-        <v>1.7796289284361996E-3</v>
+        <v>1.7622797150356217E-3</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
@@ -29687,15 +29716,15 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:30" ht="14.1">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ref="D6:D10" si="4">IF($C$3="R",SUMIF(A$15:A$103,$A6,D$15:D$103),SUMIF($C$15:$C$103,$C6,D$15:D$103))</f>
@@ -29783,15 +29812,15 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:30" ht="14.1">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="4"/>
@@ -29879,15 +29908,15 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:30" ht="14.1">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="4"/>
@@ -29975,13 +30004,13 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:30" ht="14.1">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="4"/>
@@ -30061,11 +30090,11 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:30" ht="27.95">
+    <row r="10" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="38"/>
       <c r="C10" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="4"/>
@@ -30127,7 +30156,7 @@
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V10" s="39">
         <f t="shared" ref="V10:W10" si="20">SUMIF($A$15:$A$103,$A10,D$15:D$103)</f>
@@ -30153,7 +30182,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:30" ht="14.1">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -30162,7 +30191,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
       <c r="H11" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="41"/>
@@ -30172,7 +30201,7 @@
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="68"/>
       <c r="R11" s="41"/>
@@ -30190,10 +30219,10 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:30" ht="14.1">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -30243,10 +30272,10 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:30" ht="14.1">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -30296,7 +30325,7 @@
       <c r="R13" s="15"/>
       <c r="S13" s="46" t="str">
         <f ca="1">Q14-E2&amp;" Days"</f>
-        <v>-2621 Days</v>
+        <v>-2647 Days</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="46" t="str">
@@ -30340,15 +30369,15 @@
         <v>Tue</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="14.1">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>12</v>
@@ -30441,10 +30470,10 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="14.1">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -30541,15 +30570,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="14.1">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="14">
         <v>4</v>
@@ -30646,15 +30675,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.1">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="14">
         <v>4</v>
@@ -30752,15 +30781,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="27.95">
+    <row r="18" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="14">
         <v>2</v>
@@ -30858,15 +30887,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="27.95">
+    <row r="19" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
@@ -30963,15 +30992,15 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="14.1">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="14">
         <v>6</v>
@@ -31068,7 +31097,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.1">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -31166,10 +31195,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.1">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -31266,15 +31295,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.1">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -31372,15 +31401,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1">
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="14">
         <v>2</v>
@@ -31478,15 +31507,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="14.1">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="14">
         <v>4</v>
@@ -31583,15 +31612,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.1">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="14">
         <v>2</v>
@@ -31689,15 +31718,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="14.1">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="14">
         <v>2</v>
@@ -31795,15 +31824,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="14.1">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
@@ -31901,15 +31930,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="14.1">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -32007,7 +32036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="14.1">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -32105,10 +32134,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="14.1">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -32205,15 +32234,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="14.1">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="14">
         <v>3</v>
@@ -32311,15 +32340,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="14.1">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="14">
         <v>2</v>
@@ -32417,13 +32446,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="14.1">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="25" t="str">
@@ -32519,7 +32548,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="14.1">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -32617,10 +32646,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="14.1">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -32717,15 +32746,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.1">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="14">
         <v>1</v>
@@ -32823,15 +32852,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.1">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="14">
         <v>8</v>
@@ -32928,15 +32957,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.1">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="14">
         <v>2</v>
@@ -33034,13 +33063,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.1">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="25" t="str">
@@ -33136,7 +33165,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.1">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -33234,7 +33263,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="14.1">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -33332,10 +33361,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.1">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -33432,15 +33461,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.1">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="14">
         <v>2</v>
@@ -33538,15 +33567,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.1">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="14">
         <v>4</v>
@@ -33644,15 +33673,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.1">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="14">
         <v>4</v>
@@ -33750,7 +33779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="14.1">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -33848,7 +33877,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="14.1">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -33946,7 +33975,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.1">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -34044,7 +34073,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="14.1">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -34142,7 +34171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="14.1">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -34240,7 +34269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="14.1">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -34338,7 +34367,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="14.1">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -34436,7 +34465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="14.1">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -34534,7 +34563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="14.1">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -34632,7 +34661,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="14.1">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -34730,7 +34759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="14.1">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -34828,7 +34857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="14.1">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -34926,7 +34955,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="14.1">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -35024,7 +35053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="14.1">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -35122,7 +35151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="14.1">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -35220,7 +35249,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.1">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -35318,7 +35347,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="14.1">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="52"/>
       <c r="C63" s="14"/>
@@ -35416,7 +35445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14.1">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -35514,7 +35543,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="14.1">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -35612,7 +35641,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="14.1">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -35710,7 +35739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="14.1">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -35808,7 +35837,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="14.1">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -35906,7 +35935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="14.1">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -36004,7 +36033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="14.1">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -36102,7 +36131,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="14.1">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -36200,7 +36229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="14.1">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -36298,7 +36327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="14.1">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -36396,7 +36425,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="14.1">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -36494,7 +36523,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="14.1">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -36592,7 +36621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="14.1">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -36690,7 +36719,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="14.1">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -36788,7 +36817,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="14.1">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -36886,7 +36915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="14.1">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -36984,7 +37013,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="14.1">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -37082,7 +37111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="14.1">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -37180,7 +37209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="14.1">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -37278,7 +37307,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="14.1">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -37376,7 +37405,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="14.1">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -37474,7 +37503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="14.1">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -37572,7 +37601,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="14.1">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -37670,7 +37699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="14.1">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -37768,7 +37797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="14.1">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -37866,7 +37895,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="14.1">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -37964,7 +37993,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="14.1">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -38062,7 +38091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="14.1">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -38160,7 +38189,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="14.1">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -38258,7 +38287,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="14.1">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -38356,7 +38385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="14.1">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -38454,7 +38483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="14.1">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -38552,7 +38581,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="14.1">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -38650,7 +38679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="14.1">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -38748,7 +38777,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="14.1">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -38846,7 +38875,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="14.1">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -38944,7 +38973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="14.1">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -39042,7 +39071,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="14.1">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -39140,7 +39169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="14.1">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -39238,7 +39267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="14.1">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -39336,10 +39365,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="12.95">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="54"/>
       <c r="B104" s="55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C104" s="56"/>
       <c r="D104" s="56"/>
@@ -39369,7 +39398,7 @@
       <c r="AB104" s="54"/>
       <c r="AC104" s="9"/>
     </row>
-    <row r="105" spans="1:30" ht="12" customHeight="1">
+    <row r="105" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="3"/>
       <c r="C105" s="8"/>
@@ -39418,7 +39447,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="1:30" ht="12.95">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="3"/>
       <c r="C106" s="8"/>
@@ -39467,7 +39496,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="1:30" ht="12.95">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
